--- a/cp1/FB-05 Sapozhnyk, FB-05 Karas lab 1/Частота біграм з пробілами.xlsx
+++ b/cp1/FB-05 Sapozhnyk, FB-05 Karas lab 1/Частота біграм з пробілами.xlsx
@@ -588,91 +588,91 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="C2">
-        <v>0.00075</v>
+        <v>0.00118</v>
       </c>
       <c r="D2">
-        <v>0.00226</v>
+        <v>0.00312</v>
       </c>
       <c r="E2">
-        <v>0.00151</v>
+        <v>0.00076</v>
       </c>
       <c r="F2">
-        <v>0.00226</v>
+        <v>0.002</v>
       </c>
       <c r="G2">
-        <v>0.001</v>
+        <v>0.00096</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
       <c r="J2">
-        <v>0.00088</v>
+        <v>0.00116</v>
       </c>
       <c r="K2">
-        <v>0.00414</v>
+        <v>0.00314</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.00025</v>
+        <v>0.00087</v>
       </c>
       <c r="O2">
-        <v>0.00452</v>
+        <v>0.00386</v>
       </c>
       <c r="P2">
-        <v>0.008030000000000001</v>
+        <v>0.0086</v>
       </c>
       <c r="Q2">
-        <v>0.00326</v>
+        <v>0.0031</v>
       </c>
       <c r="R2">
-        <v>0.00238</v>
+        <v>0.00406</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="T2">
-        <v>0.00088</v>
+        <v>0.0014</v>
       </c>
       <c r="U2">
-        <v>0.00326</v>
+        <v>0.00249</v>
       </c>
       <c r="V2">
-        <v>0.00251</v>
+        <v>0.00385</v>
       </c>
       <c r="W2">
-        <v>0.00376</v>
+        <v>0.00492</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="Y2">
-        <v>0.00025</v>
+        <v>6E-05</v>
       </c>
       <c r="Z2">
-        <v>0.001</v>
+        <v>0.00095</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>0.00027</v>
       </c>
       <c r="AB2">
-        <v>0.001</v>
+        <v>0.00091</v>
       </c>
       <c r="AC2">
-        <v>0.00038</v>
+        <v>0.00096</v>
       </c>
       <c r="AD2">
-        <v>0.00025</v>
+        <v>0.00036</v>
       </c>
       <c r="AE2">
         <v>0</v>
@@ -681,13 +681,13 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.00113</v>
+        <v>0.00094</v>
       </c>
       <c r="AH2">
-        <v>0.00201</v>
+        <v>0.00165</v>
       </c>
       <c r="AI2">
-        <v>0.01807</v>
+        <v>0.01514</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -695,22 +695,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.001</v>
+        <v>0.00073</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>4E-05</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>3E-05</v>
       </c>
       <c r="G3">
-        <v>0.00088</v>
+        <v>0.00167</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -719,40 +719,40 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="L3">
-        <v>0.001</v>
+        <v>0.00091</v>
       </c>
       <c r="M3">
-        <v>0.00414</v>
+        <v>0.00297</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.0005</v>
+        <v>0.00018</v>
       </c>
       <c r="P3">
-        <v>0.00213</v>
+        <v>0.00104</v>
       </c>
       <c r="Q3">
-        <v>0.00013</v>
+        <v>6E-05</v>
       </c>
       <c r="R3">
-        <v>0.00013</v>
+        <v>0.00038</v>
       </c>
       <c r="S3">
-        <v>0.00364</v>
+        <v>0.00216</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.00176</v>
+        <v>0.00127</v>
       </c>
       <c r="V3">
         <v>0.00013</v>
@@ -761,40 +761,40 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0.00075</v>
+        <v>0.00104</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.00025</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>3E-05</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="AH3">
-        <v>0.00025</v>
+        <v>0.00056</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>0.00018</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -802,22 +802,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.00502</v>
+        <v>0.00556</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="D4">
-        <v>0.00025</v>
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="E4">
-        <v>0.00025</v>
+        <v>1E-05</v>
       </c>
       <c r="F4">
-        <v>0.00025</v>
+        <v>0.00022</v>
       </c>
       <c r="G4">
-        <v>0.0059</v>
+        <v>0.00464</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -829,79 +829,79 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.00025</v>
+        <v>0.00058</v>
       </c>
       <c r="L4">
-        <v>0.00301</v>
+        <v>0.00305</v>
       </c>
       <c r="M4">
-        <v>0.00201</v>
+        <v>0.00291</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.00025</v>
+        <v>0.0003</v>
       </c>
       <c r="P4">
-        <v>0.00038</v>
+        <v>0.00067</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="R4">
-        <v>0.00113</v>
+        <v>0.00104</v>
       </c>
       <c r="S4">
-        <v>0.00514</v>
+        <v>0.00567</v>
       </c>
       <c r="T4">
-        <v>0.00025</v>
+        <v>0.0004</v>
       </c>
       <c r="U4">
-        <v>0.0005</v>
+        <v>0.00068</v>
       </c>
       <c r="V4">
-        <v>0.00188</v>
+        <v>0.00231</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>0.00029</v>
       </c>
       <c r="X4">
-        <v>0.00025</v>
+        <v>0.00066</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.00013</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>3E-05</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>4E-05</v>
       </c>
       <c r="AC4">
-        <v>0.0005</v>
+        <v>0.00056</v>
       </c>
       <c r="AD4">
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="AG4">
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.00013</v>
+        <v>0.00027</v>
       </c>
       <c r="AI4">
-        <v>0.008279999999999999</v>
+        <v>0.00553</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -909,22 +909,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.00088</v>
+        <v>0.00123</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.00125</v>
+        <v>0.001</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.00027</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -939,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.00113</v>
+        <v>0.00073</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -948,46 +948,46 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.00013</v>
+        <v>0.00014</v>
       </c>
       <c r="P5">
-        <v>0.00113</v>
+        <v>0.00155</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0.00025</v>
+        <v>0.00038</v>
       </c>
       <c r="S5">
-        <v>0.00878</v>
+        <v>0.00577</v>
       </c>
       <c r="T5">
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0.00138</v>
+        <v>0.00103</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>3E-05</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="X5">
-        <v>0.00125</v>
+        <v>0.00052</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>5E-05</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.00176</v>
+        <v>0.00068</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1016,22 +1016,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.00439</v>
+        <v>0.00445</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>4E-05</v>
       </c>
       <c r="D6">
-        <v>0.00188</v>
+        <v>0.00121</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>3E-05</v>
       </c>
       <c r="F6">
-        <v>0.00013</v>
+        <v>6E-05</v>
       </c>
       <c r="G6">
-        <v>0.0054</v>
+        <v>0.00457</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1040,82 +1040,82 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.00125</v>
+        <v>0.00031</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
       <c r="L6">
-        <v>0.00263</v>
+        <v>0.00238</v>
       </c>
       <c r="M6">
-        <v>0.00025</v>
+        <v>0.00057</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.00025</v>
+        <v>0.00023</v>
       </c>
       <c r="P6">
-        <v>0.00163</v>
+        <v>0.00067</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>3E-05</v>
       </c>
       <c r="R6">
-        <v>0.00176</v>
+        <v>0.00157</v>
       </c>
       <c r="S6">
-        <v>0.00301</v>
+        <v>0.00394</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>0.00012</v>
       </c>
       <c r="U6">
-        <v>0.001</v>
+        <v>0.00094</v>
       </c>
       <c r="V6">
-        <v>0.00038</v>
+        <v>0.00026</v>
       </c>
       <c r="W6">
-        <v>0.00013</v>
+        <v>0.00011</v>
       </c>
       <c r="X6">
-        <v>0.00163</v>
+        <v>0.00159</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="AA6">
-        <v>0.00025</v>
+        <v>0.00017</v>
       </c>
       <c r="AB6">
-        <v>0.00013</v>
+        <v>5E-05</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>3E-05</v>
       </c>
       <c r="AD6">
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>3E-05</v>
       </c>
       <c r="AF6">
-        <v>0.00013</v>
+        <v>0.00043</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="AH6">
-        <v>0.00063</v>
+        <v>0.00032</v>
       </c>
       <c r="AI6">
-        <v>0.00125</v>
+        <v>0.00108</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -1123,91 +1123,91 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>6E-05</v>
       </c>
       <c r="C7">
-        <v>0.00063</v>
+        <v>0.00119</v>
       </c>
       <c r="D7">
-        <v>0.00213</v>
+        <v>0.00126</v>
       </c>
       <c r="E7">
-        <v>0.00314</v>
+        <v>0.0026</v>
       </c>
       <c r="F7">
-        <v>0.00263</v>
+        <v>0.00279</v>
       </c>
       <c r="G7">
-        <v>0.00063</v>
+        <v>0.00102</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="J7">
-        <v>0.00063</v>
+        <v>0.00075</v>
       </c>
       <c r="K7">
-        <v>0.00088</v>
+        <v>0.00127</v>
       </c>
       <c r="L7">
-        <v>0.00013</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.00201</v>
+        <v>0.00182</v>
       </c>
       <c r="O7">
-        <v>0.00163</v>
+        <v>0.00123</v>
       </c>
       <c r="P7">
-        <v>0.00502</v>
+        <v>0.00541</v>
       </c>
       <c r="Q7">
         <v>0.00364</v>
       </c>
       <c r="R7">
-        <v>0.008529999999999999</v>
+        <v>0.00731</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.00022</v>
       </c>
       <c r="T7">
-        <v>0.00151</v>
+        <v>0.00108</v>
       </c>
       <c r="U7">
-        <v>0.008529999999999999</v>
+        <v>0.00658</v>
       </c>
       <c r="V7">
-        <v>0.00376</v>
+        <v>0.00412</v>
       </c>
       <c r="W7">
-        <v>0.00652</v>
+        <v>0.00488</v>
       </c>
       <c r="X7">
-        <v>0.00013</v>
+        <v>0.00011</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
       <c r="Z7">
-        <v>0.00025</v>
+        <v>0.00055</v>
       </c>
       <c r="AA7">
-        <v>0.0005</v>
+        <v>0.00033</v>
       </c>
       <c r="AB7">
-        <v>0.00063</v>
+        <v>0.0009</v>
       </c>
       <c r="AC7">
-        <v>0.00063</v>
+        <v>0.00096</v>
       </c>
       <c r="AD7">
-        <v>0.00063</v>
+        <v>0.00068</v>
       </c>
       <c r="AE7">
         <v>0</v>
@@ -1216,13 +1216,13 @@
         <v>0</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>0.00015</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>0.00022</v>
       </c>
       <c r="AI7">
-        <v>0.01631</v>
+        <v>0.01671</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1373,43 +1373,43 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.00012</v>
       </c>
       <c r="P9">
-        <v>0.00013</v>
+        <v>0.00011</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="R9">
-        <v>0.00038</v>
+        <v>5E-05</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>0.00015</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>4E-05</v>
       </c>
       <c r="W9">
-        <v>0.00188</v>
+        <v>0.00218</v>
       </c>
       <c r="X9">
         <v>0</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.00075</v>
+        <v>0.00143</v>
       </c>
       <c r="C10">
-        <v>0.00013</v>
+        <v>3E-05</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1456,10 +1456,10 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.00088</v>
+        <v>0.00076</v>
       </c>
       <c r="G10">
-        <v>0.00364</v>
+        <v>0.003</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1468,13 +1468,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.00176</v>
+        <v>0.00146</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -1483,34 +1483,34 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.00025</v>
+        <v>0.00015</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="R10">
-        <v>0.0005</v>
+        <v>0.00091</v>
       </c>
       <c r="S10">
-        <v>0.00063</v>
+        <v>4E-05</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>0.00025</v>
+        <v>0.00029</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.00013</v>
+        <v>1E-05</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="AG10">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>0.00025</v>
+        <v>0.00021</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -1551,22 +1551,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.00439</v>
+        <v>0.00573</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.00014</v>
       </c>
       <c r="D11">
-        <v>0.00063</v>
+        <v>0.00077</v>
       </c>
       <c r="E11">
-        <v>0.00038</v>
+        <v>0.00043</v>
       </c>
       <c r="F11">
-        <v>0.00013</v>
+        <v>0.0009</v>
       </c>
       <c r="G11">
-        <v>0.00075</v>
+        <v>0.00044</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1575,49 +1575,49 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>6E-05</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>6E-05</v>
       </c>
       <c r="L11">
-        <v>0.00025</v>
+        <v>0.00047</v>
       </c>
       <c r="M11">
-        <v>0.00075</v>
+        <v>0.00033</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.00015</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.00027</v>
       </c>
       <c r="Q11">
-        <v>0.0005</v>
+        <v>0.00046</v>
       </c>
       <c r="R11">
-        <v>0.00188</v>
+        <v>0.00144</v>
       </c>
       <c r="S11">
-        <v>0.0005</v>
+        <v>0.00074</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>3E-05</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="V11">
         <v>0</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
       <c r="X11">
-        <v>0.00063</v>
+        <v>0.00055</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="AC11">
         <v>0</v>
@@ -1638,19 +1638,19 @@
         <v>0</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="AF11">
-        <v>0.00013</v>
+        <v>0.00011</v>
       </c>
       <c r="AG11">
         <v>0</v>
       </c>
       <c r="AH11">
-        <v>0.00013</v>
+        <v>0.00027</v>
       </c>
       <c r="AI11">
-        <v>0.00113</v>
+        <v>0.00163</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -1658,91 +1658,91 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.00013</v>
+        <v>0.00019</v>
       </c>
       <c r="C12">
-        <v>0.0005</v>
+        <v>0.00067</v>
       </c>
       <c r="D12">
-        <v>0.00113</v>
+        <v>0.00212</v>
       </c>
       <c r="E12">
-        <v>0.00088</v>
+        <v>0.00068</v>
       </c>
       <c r="F12">
-        <v>0.00276</v>
+        <v>0.00137</v>
       </c>
       <c r="G12">
-        <v>0.00176</v>
+        <v>0.00185</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="J12">
-        <v>0.00013</v>
+        <v>0.0003</v>
       </c>
       <c r="K12">
-        <v>0.00201</v>
+        <v>0.00225</v>
       </c>
       <c r="L12">
-        <v>0.00038</v>
+        <v>0.00056</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.00176</v>
+        <v>0.00087</v>
       </c>
       <c r="O12">
-        <v>0.00276</v>
+        <v>0.00228</v>
       </c>
       <c r="P12">
-        <v>0.00389</v>
+        <v>0.00504</v>
       </c>
       <c r="Q12">
-        <v>0.00188</v>
+        <v>0.00256</v>
       </c>
       <c r="R12">
-        <v>0.00439</v>
+        <v>0.00312</v>
       </c>
       <c r="S12">
-        <v>0.00025</v>
+        <v>0.00027</v>
       </c>
       <c r="T12">
-        <v>0.00038</v>
+        <v>0.00028</v>
       </c>
       <c r="U12">
-        <v>0.00088</v>
+        <v>0.00105</v>
       </c>
       <c r="V12">
-        <v>0.00163</v>
+        <v>0.0028</v>
       </c>
       <c r="W12">
-        <v>0.00226</v>
+        <v>0.00392</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="Y12">
-        <v>0.00013</v>
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="Z12">
-        <v>0.00138</v>
+        <v>0.00147</v>
       </c>
       <c r="AA12">
-        <v>0.00088</v>
+        <v>0.0009300000000000001</v>
       </c>
       <c r="AB12">
-        <v>0.00075</v>
+        <v>0.00099</v>
       </c>
       <c r="AC12">
-        <v>0.00063</v>
+        <v>0.0006400000000000001</v>
       </c>
       <c r="AD12">
-        <v>0.00013</v>
+        <v>0.00018</v>
       </c>
       <c r="AE12">
         <v>0</v>
@@ -1751,13 +1751,13 @@
         <v>0</v>
       </c>
       <c r="AG12">
-        <v>0.00038</v>
+        <v>0.0003</v>
       </c>
       <c r="AH12">
-        <v>0.00038</v>
+        <v>0.00127</v>
       </c>
       <c r="AI12">
-        <v>0.02108</v>
+        <v>0.01634</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -1768,19 +1768,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.00028</v>
       </c>
       <c r="D13">
-        <v>0.00113</v>
+        <v>0.00085</v>
       </c>
       <c r="E13">
-        <v>0.00038</v>
+        <v>0.00017</v>
       </c>
       <c r="F13">
-        <v>0.00038</v>
+        <v>0.00012</v>
       </c>
       <c r="G13">
-        <v>0.001</v>
+        <v>0.00108</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1789,67 +1789,67 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.00013</v>
+        <v>4E-05</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.00138</v>
+        <v>0.00144</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="P13">
-        <v>0.00314</v>
+        <v>0.00189</v>
       </c>
       <c r="Q13">
-        <v>0.00151</v>
+        <v>0.00102</v>
       </c>
       <c r="R13">
-        <v>0.00013</v>
+        <v>0.0001</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>0.00024</v>
       </c>
       <c r="U13">
-        <v>0.00013</v>
+        <v>0.00029</v>
       </c>
       <c r="V13">
-        <v>0.00038</v>
+        <v>0.00077</v>
       </c>
       <c r="W13">
-        <v>0.00025</v>
+        <v>0.00072</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>0.00125</v>
+        <v>0.00094</v>
       </c>
       <c r="AA13">
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0.00013</v>
+        <v>0.0002</v>
       </c>
       <c r="AC13">
-        <v>0.0005</v>
+        <v>0.00053</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
       <c r="AE13">
         <v>0</v>
@@ -1861,10 +1861,10 @@
         <v>0</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>6E-05</v>
       </c>
       <c r="AI13">
-        <v>0.00339</v>
+        <v>0.0054</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -1875,19 +1875,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>4E-05</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="F14">
-        <v>0.00025</v>
+        <v>0.00022</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1899,10 +1899,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1911,49 +1911,49 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.00025</v>
+        <v>0.00015</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>3E-05</v>
       </c>
       <c r="Q14">
-        <v>0.00013</v>
+        <v>0.0001</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>0.00029</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="U14">
         <v>0</v>
       </c>
       <c r="V14">
-        <v>0.0005</v>
+        <v>0.00059</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>0.00039</v>
       </c>
       <c r="X14">
         <v>0</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>3E-05</v>
       </c>
       <c r="Z14">
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
       <c r="AB14">
         <v>0.00013</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="AD14">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>3E-05</v>
       </c>
       <c r="AI14">
-        <v>0.00891</v>
+        <v>0.00628</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -1979,22 +1979,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.00891</v>
+        <v>0.00673</v>
       </c>
       <c r="C15">
-        <v>0.00013</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>0.00025</v>
+        <v>0.00012</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="G15">
-        <v>0.00226</v>
+        <v>0.00059</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -2003,13 +2003,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>3E-05</v>
       </c>
       <c r="L15">
-        <v>0.00452</v>
+        <v>0.00266</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -2018,34 +2018,34 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>4E-05</v>
       </c>
       <c r="P15">
-        <v>0.00088</v>
+        <v>0.00078</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
       <c r="R15">
-        <v>0.00013</v>
+        <v>0.00055</v>
       </c>
       <c r="S15">
-        <v>0.00903</v>
+        <v>0.00772</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="U15">
-        <v>0.00163</v>
+        <v>0.002</v>
       </c>
       <c r="V15">
-        <v>0.00013</v>
+        <v>0.00017</v>
       </c>
       <c r="W15">
-        <v>0.00088</v>
+        <v>0.00079</v>
       </c>
       <c r="X15">
-        <v>0.00125</v>
+        <v>0.00194</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>0.00025</v>
+        <v>4E-05</v>
       </c>
       <c r="AB15">
         <v>0</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="AD15">
         <v>0</v>
@@ -2075,10 +2075,10 @@
         <v>0</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="AI15">
-        <v>0.00452</v>
+        <v>0.00421</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -2086,22 +2086,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.00514</v>
+        <v>0.00504</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>3E-05</v>
       </c>
       <c r="D16">
-        <v>0.00025</v>
+        <v>4E-05</v>
       </c>
       <c r="E16">
-        <v>0.00013</v>
+        <v>0.00012</v>
       </c>
       <c r="F16">
-        <v>0.00025</v>
+        <v>0.00018</v>
       </c>
       <c r="G16">
-        <v>0.0059</v>
+        <v>0.00424</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -2110,49 +2110,49 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.00027</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>4E-05</v>
       </c>
       <c r="L16">
-        <v>0.00627</v>
+        <v>0.00701</v>
       </c>
       <c r="M16">
-        <v>0.00075</v>
+        <v>0.00068</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.00038</v>
+        <v>0.00044</v>
       </c>
       <c r="P16">
-        <v>0.00088</v>
+        <v>0.00022</v>
       </c>
       <c r="Q16">
-        <v>0.00013</v>
+        <v>3E-05</v>
       </c>
       <c r="R16">
-        <v>0.0005</v>
+        <v>0.00046</v>
       </c>
       <c r="S16">
-        <v>0.0074</v>
+        <v>0.00546</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="U16">
         <v>0</v>
       </c>
       <c r="V16">
-        <v>0.00213</v>
+        <v>0.00233</v>
       </c>
       <c r="W16">
-        <v>0.00013</v>
+        <v>5E-05</v>
       </c>
       <c r="X16">
-        <v>0.00125</v>
+        <v>0.00135</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>0.00013</v>
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="AC16">
         <v>0</v>
@@ -2176,16 +2176,16 @@
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>0.00414</v>
+        <v>0.00405</v>
       </c>
       <c r="AG16">
-        <v>0.00038</v>
+        <v>0.00094</v>
       </c>
       <c r="AH16">
-        <v>0.00201</v>
+        <v>0.00167</v>
       </c>
       <c r="AI16">
-        <v>0.00565</v>
+        <v>0.00835</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -2193,28 +2193,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.00326</v>
+        <v>0.00249</v>
       </c>
       <c r="C17">
-        <v>0.00013</v>
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>4E-05</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>3E-05</v>
       </c>
       <c r="G17">
-        <v>0.00678</v>
+        <v>0.00429</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.00013</v>
+        <v>1E-05</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -2223,76 +2223,76 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.00339</v>
+        <v>0.00244</v>
       </c>
       <c r="M17">
-        <v>0.00075</v>
+        <v>0.00157</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.00016</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.00012</v>
       </c>
       <c r="Q17">
-        <v>0.00013</v>
+        <v>0.00012</v>
       </c>
       <c r="R17">
-        <v>0.00163</v>
+        <v>0.00194</v>
       </c>
       <c r="S17">
-        <v>0.00464</v>
+        <v>0.00407</v>
       </c>
       <c r="T17">
-        <v>0.00013</v>
+        <v>0.00018</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="V17">
-        <v>0.00013</v>
+        <v>0.00016</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>3E-05</v>
       </c>
       <c r="X17">
-        <v>0.00176</v>
+        <v>0.00153</v>
       </c>
       <c r="Y17">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="Z17">
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>0</v>
+        <v>3E-05</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>5E-05</v>
       </c>
       <c r="AC17">
         <v>0</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="AE17">
         <v>0</v>
       </c>
       <c r="AF17">
-        <v>0.00025</v>
+        <v>5E-05</v>
       </c>
       <c r="AG17">
-        <v>0</v>
+        <v>4E-05</v>
       </c>
       <c r="AH17">
-        <v>0.00063</v>
+        <v>0.0004</v>
       </c>
       <c r="AI17">
-        <v>0.00602</v>
+        <v>0.00703</v>
       </c>
     </row>
     <row r="18" spans="1:35">
@@ -2300,106 +2300,106 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.01029</v>
+        <v>0.0105</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>4E-05</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.00014</v>
       </c>
       <c r="F18">
+        <v>0.00044</v>
+      </c>
+      <c r="G18">
+        <v>0.00963</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0.00011</v>
+      </c>
+      <c r="K18">
+        <v>2E-05</v>
+      </c>
+      <c r="L18">
+        <v>0.0067</v>
+      </c>
+      <c r="M18">
+        <v>0.00325</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0.00039</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0.00249</v>
+      </c>
+      <c r="S18">
+        <v>0.009679999999999999</v>
+      </c>
+      <c r="T18">
+        <v>1E-05</v>
+      </c>
+      <c r="U18">
+        <v>6E-05</v>
+      </c>
+      <c r="V18">
         <v>0.00038</v>
       </c>
-      <c r="G18">
-        <v>0.00728</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0.00013</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0.00402</v>
-      </c>
-      <c r="M18">
-        <v>0.00364</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0.00075</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0.00351</v>
-      </c>
-      <c r="S18">
-        <v>0.01066</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0.00063</v>
-      </c>
       <c r="W18">
-        <v>0.00088</v>
+        <v>0.00099</v>
       </c>
       <c r="X18">
-        <v>0.00238</v>
+        <v>0.00381</v>
       </c>
       <c r="Y18">
-        <v>0.00038</v>
+        <v>5E-05</v>
       </c>
       <c r="Z18">
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>0.00025</v>
+        <v>0.00028</v>
       </c>
       <c r="AB18">
-        <v>0.00025</v>
+        <v>0.0002</v>
       </c>
       <c r="AC18">
         <v>0</v>
       </c>
       <c r="AD18">
-        <v>0.00013</v>
+        <v>3E-05</v>
       </c>
       <c r="AE18">
         <v>0</v>
       </c>
       <c r="AF18">
-        <v>0.00251</v>
+        <v>0.00098</v>
       </c>
       <c r="AG18">
-        <v>0.00025</v>
+        <v>0.00015</v>
       </c>
       <c r="AH18">
-        <v>0.00138</v>
+        <v>0.00221</v>
       </c>
       <c r="AI18">
-        <v>0.00314</v>
+        <v>0.00286</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -2407,91 +2407,91 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="C19">
-        <v>0.00314</v>
+        <v>0.00391</v>
       </c>
       <c r="D19">
-        <v>0.00753</v>
+        <v>0.00608</v>
       </c>
       <c r="E19">
-        <v>0.00565</v>
+        <v>0.00388</v>
       </c>
       <c r="F19">
-        <v>0.00452</v>
+        <v>0.00467</v>
       </c>
       <c r="G19">
-        <v>0.001</v>
+        <v>0.00207</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.00025</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="J19">
-        <v>0.00213</v>
+        <v>0.00184</v>
       </c>
       <c r="K19">
-        <v>0.0005</v>
+        <v>0.00135</v>
       </c>
       <c r="L19">
-        <v>0.00088</v>
+        <v>0.00099</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.00477</v>
+        <v>0.00341</v>
       </c>
       <c r="O19">
-        <v>0.00427</v>
+        <v>0.00229</v>
       </c>
       <c r="P19">
-        <v>0.00728</v>
+        <v>0.00587</v>
       </c>
       <c r="Q19">
-        <v>0.00514</v>
+        <v>0.00457</v>
       </c>
       <c r="R19">
-        <v>0.00452</v>
+        <v>0.00555</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>0.00038</v>
       </c>
       <c r="T19">
-        <v>0.00125</v>
+        <v>0.00153</v>
       </c>
       <c r="U19">
-        <v>0.00514</v>
+        <v>0.00554</v>
       </c>
       <c r="V19">
-        <v>0.00427</v>
+        <v>0.00601</v>
       </c>
       <c r="W19">
-        <v>0.00427</v>
+        <v>0.00636</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>0.00013</v>
       </c>
       <c r="Y19">
-        <v>0.00138</v>
+        <v>0.00028</v>
       </c>
       <c r="Z19">
-        <v>0.00113</v>
+        <v>0.00075</v>
       </c>
       <c r="AA19">
-        <v>0.00013</v>
+        <v>0.00012</v>
       </c>
       <c r="AB19">
-        <v>0.00201</v>
+        <v>0.00171</v>
       </c>
       <c r="AC19">
-        <v>0.00025</v>
+        <v>0.00087</v>
       </c>
       <c r="AD19">
-        <v>0.0005</v>
+        <v>0.00028</v>
       </c>
       <c r="AE19">
         <v>0</v>
@@ -2500,13 +2500,13 @@
         <v>0</v>
       </c>
       <c r="AG19">
-        <v>0</v>
+        <v>0.00021</v>
       </c>
       <c r="AH19">
         <v>0.00075</v>
       </c>
       <c r="AI19">
-        <v>0.02045</v>
+        <v>0.01936</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -2514,7 +2514,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.00151</v>
+        <v>0.00175</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.00276</v>
+        <v>0.00226</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2544,43 +2544,43 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.00088</v>
+        <v>0.00127</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.00039</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.00063</v>
+        <v>0.00013</v>
       </c>
       <c r="P20">
-        <v>0.00075</v>
+        <v>0.00116</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
       <c r="R20">
-        <v>0.00013</v>
+        <v>0.00025</v>
       </c>
       <c r="S20">
-        <v>0.008410000000000001</v>
+        <v>0.01031</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="U20">
-        <v>0.00527</v>
+        <v>0.00696</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>5E-05</v>
       </c>
       <c r="W20">
         <v>0.00013</v>
       </c>
       <c r="X20">
-        <v>0.00075</v>
+        <v>0.00088</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2592,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="AC20">
         <v>0</v>
@@ -2604,16 +2604,16 @@
         <v>0</v>
       </c>
       <c r="AF20">
-        <v>0.00013</v>
+        <v>0.00012</v>
       </c>
       <c r="AG20">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="AH20">
-        <v>0.00088</v>
+        <v>0.00019</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>0.00012</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -2621,106 +2621,106 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.00652</v>
+        <v>0.00776</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="D21">
-        <v>0.0005</v>
+        <v>0.00039</v>
       </c>
       <c r="E21">
+        <v>0.00025</v>
+      </c>
+      <c r="F21">
+        <v>0.00014</v>
+      </c>
+      <c r="G21">
+        <v>0.0057</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>2E-05</v>
+      </c>
+      <c r="J21">
+        <v>0.00049</v>
+      </c>
+      <c r="K21">
+        <v>4E-05</v>
+      </c>
+      <c r="L21">
+        <v>0.00411</v>
+      </c>
+      <c r="M21">
+        <v>0.00154</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0.00035</v>
+      </c>
+      <c r="P21">
+        <v>9.000000000000001E-05</v>
+      </c>
+      <c r="Q21">
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="R21">
+        <v>0.00117</v>
+      </c>
+      <c r="S21">
+        <v>0.00702</v>
+      </c>
+      <c r="T21">
         <v>0.00013</v>
       </c>
-      <c r="F21">
-        <v>0.00038</v>
-      </c>
-      <c r="G21">
-        <v>0.0059</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0.00025</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0.00502</v>
-      </c>
-      <c r="M21">
-        <v>0.00138</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0.00088</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0.00025</v>
-      </c>
-      <c r="R21">
-        <v>0.00063</v>
-      </c>
-      <c r="S21">
-        <v>0.00552</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
       <c r="U21">
-        <v>0.001</v>
+        <v>0.0001</v>
       </c>
       <c r="V21">
-        <v>0.00151</v>
+        <v>0.00018</v>
       </c>
       <c r="W21">
-        <v>0.00075</v>
+        <v>0.00105</v>
       </c>
       <c r="X21">
-        <v>0.00439</v>
+        <v>0.0028</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="Z21">
-        <v>0.00025</v>
+        <v>0.00017</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>5E-05</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>0.00012</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>0.00022</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
       <c r="AE21">
         <v>0</v>
       </c>
       <c r="AF21">
-        <v>0.00113</v>
+        <v>0.00076</v>
       </c>
       <c r="AG21">
-        <v>0.00025</v>
+        <v>0.00013</v>
       </c>
       <c r="AH21">
-        <v>0.00125</v>
+        <v>0.00105</v>
       </c>
       <c r="AI21">
-        <v>0.00113</v>
+        <v>0.00112</v>
       </c>
     </row>
     <row r="22" spans="1:35">
@@ -2728,106 +2728,106 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.00151</v>
+        <v>0.00111</v>
       </c>
       <c r="C22">
-        <v>0.00025</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="D22">
-        <v>0.00088</v>
+        <v>0.00133</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
       <c r="F22">
+        <v>0.00029</v>
+      </c>
+      <c r="G22">
+        <v>0.00311</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0.00013</v>
+      </c>
+      <c r="J22">
+        <v>3E-05</v>
+      </c>
+      <c r="K22">
+        <v>2E-05</v>
+      </c>
+      <c r="L22">
+        <v>0.00139</v>
+      </c>
+      <c r="M22">
+        <v>0.00028</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0.00302</v>
+      </c>
+      <c r="P22">
+        <v>0.00296</v>
+      </c>
+      <c r="Q22">
+        <v>0.00072</v>
+      </c>
+      <c r="R22">
+        <v>0.00106</v>
+      </c>
+      <c r="S22">
+        <v>0.00255</v>
+      </c>
+      <c r="T22">
+        <v>0.0018</v>
+      </c>
+      <c r="U22">
+        <v>0.00029</v>
+      </c>
+      <c r="V22">
+        <v>0.00059</v>
+      </c>
+      <c r="W22">
+        <v>0.01072</v>
+      </c>
+      <c r="X22">
+        <v>0.00078</v>
+      </c>
+      <c r="Y22">
+        <v>2E-05</v>
+      </c>
+      <c r="Z22">
+        <v>0.00023</v>
+      </c>
+      <c r="AA22">
+        <v>4E-05</v>
+      </c>
+      <c r="AB22">
         <v>0.00038</v>
       </c>
-      <c r="G22">
-        <v>0.00351</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0.00226</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0.00251</v>
-      </c>
-      <c r="P22">
-        <v>0.00289</v>
-      </c>
-      <c r="Q22">
-        <v>0.00151</v>
-      </c>
-      <c r="R22">
-        <v>0.00088</v>
-      </c>
-      <c r="S22">
-        <v>0.00201</v>
-      </c>
-      <c r="T22">
-        <v>0.00125</v>
-      </c>
-      <c r="U22">
-        <v>0.00025</v>
-      </c>
-      <c r="V22">
-        <v>0.0005</v>
-      </c>
-      <c r="W22">
-        <v>0.00778</v>
-      </c>
-      <c r="X22">
-        <v>0.00013</v>
-      </c>
-      <c r="Y22">
-        <v>0</v>
-      </c>
-      <c r="Z22">
-        <v>0.00013</v>
-      </c>
-      <c r="AA22">
-        <v>0</v>
-      </c>
-      <c r="AB22">
-        <v>0.00013</v>
-      </c>
       <c r="AC22">
-        <v>0</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="AD22">
         <v>0</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>3E-05</v>
       </c>
       <c r="AF22">
-        <v>0.00213</v>
+        <v>0.00329</v>
       </c>
       <c r="AG22">
-        <v>0.0005</v>
+        <v>0.00021</v>
       </c>
       <c r="AH22">
-        <v>0.00364</v>
+        <v>0.00513</v>
       </c>
       <c r="AI22">
-        <v>0.00301</v>
+        <v>0.00277</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -2835,106 +2835,106 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.00615</v>
+        <v>0.00611</v>
       </c>
       <c r="C23">
-        <v>0.00063</v>
+        <v>4E-05</v>
       </c>
       <c r="D23">
-        <v>0.00201</v>
+        <v>0.00209</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="F23">
-        <v>0.00025</v>
+        <v>0.00015</v>
       </c>
       <c r="G23">
-        <v>0.00402</v>
+        <v>0.00518</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.00013</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.00226</v>
+        <v>0.00382</v>
       </c>
       <c r="M23">
-        <v>0.00151</v>
+        <v>0.00182</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.001</v>
+        <v>0.00085</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.00024</v>
       </c>
       <c r="Q23">
-        <v>0.00038</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="R23">
-        <v>0.00063</v>
+        <v>0.00108</v>
       </c>
       <c r="S23">
-        <v>0.01104</v>
+        <v>0.012</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>0.00019</v>
       </c>
       <c r="U23">
-        <v>0.00238</v>
+        <v>0.00268</v>
       </c>
       <c r="V23">
-        <v>0.00038</v>
+        <v>0.00149</v>
       </c>
       <c r="W23">
-        <v>0.00013</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="X23">
-        <v>0.00151</v>
+        <v>0.0017</v>
       </c>
       <c r="Y23">
-        <v>0.00013</v>
+        <v>0</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="AA23">
-        <v>0</v>
+        <v>3E-05</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>0.00011</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
       <c r="AE23">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="AF23">
-        <v>0.00464</v>
+        <v>0.00603</v>
       </c>
       <c r="AG23">
-        <v>0.0005</v>
+        <v>0.00014</v>
       </c>
       <c r="AH23">
-        <v>0.00063</v>
+        <v>0.00054</v>
       </c>
       <c r="AI23">
-        <v>0.00477</v>
+        <v>0.00553</v>
       </c>
     </row>
     <row r="24" spans="1:35">
@@ -2942,88 +2942,88 @@
         <v>22</v>
       </c>
       <c r="B24">
+        <v>6.999999999999999E-05</v>
+      </c>
+      <c r="C24">
+        <v>0.0006400000000000001</v>
+      </c>
+      <c r="D24">
+        <v>0.00066</v>
+      </c>
+      <c r="E24">
+        <v>0.00084</v>
+      </c>
+      <c r="F24">
+        <v>0.00188</v>
+      </c>
+      <c r="G24">
+        <v>0.00019</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>1E-05</v>
+      </c>
+      <c r="J24">
+        <v>0.00145</v>
+      </c>
+      <c r="K24">
         <v>0.00038</v>
       </c>
-      <c r="C24">
-        <v>0.00151</v>
-      </c>
-      <c r="D24">
-        <v>0.0005</v>
-      </c>
-      <c r="E24">
-        <v>0.00113</v>
-      </c>
-      <c r="F24">
-        <v>0.00088</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0.00038</v>
-      </c>
-      <c r="J24">
-        <v>0.00125</v>
-      </c>
-      <c r="K24">
-        <v>0.00025</v>
-      </c>
       <c r="L24">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="O24">
-        <v>0.00088</v>
+        <v>0.00084</v>
       </c>
       <c r="P24">
-        <v>0.00113</v>
+        <v>0.00248</v>
       </c>
       <c r="Q24">
-        <v>0.00151</v>
+        <v>0.00109</v>
       </c>
       <c r="R24">
-        <v>0.00013</v>
+        <v>0.0004</v>
       </c>
       <c r="S24">
-        <v>0.00013</v>
+        <v>1E-05</v>
       </c>
       <c r="T24">
         <v>0.00075</v>
       </c>
       <c r="U24">
-        <v>0.00038</v>
+        <v>0.00058</v>
       </c>
       <c r="V24">
-        <v>0.00113</v>
+        <v>0.0015</v>
       </c>
       <c r="W24">
-        <v>0.00263</v>
+        <v>0.00194</v>
       </c>
       <c r="X24">
-        <v>0</v>
+        <v>4E-05</v>
       </c>
       <c r="Y24">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="Z24">
-        <v>0.00063</v>
+        <v>0.00046</v>
       </c>
       <c r="AA24">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="AB24">
-        <v>0.00025</v>
+        <v>0.00103</v>
       </c>
       <c r="AC24">
-        <v>0.00013</v>
+        <v>0.00058</v>
       </c>
       <c r="AD24">
         <v>0.00025</v>
@@ -3035,13 +3035,13 @@
         <v>0</v>
       </c>
       <c r="AG24">
-        <v>0.001</v>
+        <v>0.00099</v>
       </c>
       <c r="AH24">
-        <v>0.00013</v>
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="AI24">
-        <v>0.00627</v>
+        <v>0.00626</v>
       </c>
     </row>
     <row r="25" spans="1:35">
@@ -3064,13 +3064,13 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.00038</v>
+        <v>0.00017</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.00151</v>
+        <v>0.00033</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.00025</v>
+        <v>0.0001</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -3100,25 +3100,25 @@
         <v>0</v>
       </c>
       <c r="S25">
+        <v>0.00028</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>8.000000000000001E-05</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>3E-05</v>
+      </c>
+      <c r="X25">
         <v>0.00013</v>
       </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0.00025</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>0.00013</v>
-      </c>
-      <c r="X25">
-        <v>0.00025</v>
-      </c>
       <c r="Y25">
-        <v>0.00138</v>
+        <v>2E-05</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -3130,7 +3130,7 @@
         <v>0</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="AD25">
         <v>0</v>
@@ -3148,7 +3148,7 @@
         <v>0</v>
       </c>
       <c r="AI25">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
     </row>
     <row r="26" spans="1:35">
@@ -3156,13 +3156,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.00113</v>
+        <v>0.00045</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>0.00037</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -3171,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>5E-05</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>0.00038</v>
+        <v>0.00018</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -3198,31 +3198,31 @@
         <v>0</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>0.00015</v>
       </c>
       <c r="Q26">
-        <v>0.00013</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="R26">
-        <v>0.00013</v>
+        <v>0.00044</v>
       </c>
       <c r="S26">
-        <v>0.00263</v>
+        <v>0.00204</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="U26">
         <v>0.00025</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>6E-05</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="X26">
-        <v>0.00025</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="AC26">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="AI26">
-        <v>0.00376</v>
+        <v>0.00284</v>
       </c>
     </row>
     <row r="27" spans="1:35">
@@ -3263,13 +3263,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.00038</v>
+        <v>0.00046</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>0.00025</v>
+        <v>3E-05</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>0.00138</v>
+        <v>0.00091</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -3293,16 +3293,16 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>0.0005</v>
+        <v>0.00068</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>0.00017</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -3311,10 +3311,10 @@
         <v>0</v>
       </c>
       <c r="R27">
-        <v>0.00013</v>
+        <v>0</v>
       </c>
       <c r="S27">
-        <v>0.00038</v>
+        <v>0.00015</v>
       </c>
       <c r="T27">
         <v>0</v>
@@ -3326,10 +3326,10 @@
         <v>0</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="X27">
-        <v>0.00038</v>
+        <v>0.00011</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="AI27">
-        <v>0.00025</v>
+        <v>0.00031</v>
       </c>
     </row>
     <row r="28" spans="1:35">
@@ -3370,7 +3370,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.00113</v>
+        <v>0.00169</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -3385,7 +3385,7 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>0.00339</v>
+        <v>0.00328</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -3400,43 +3400,43 @@
         <v>0</v>
       </c>
       <c r="L28">
+        <v>0.00163</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0.00044</v>
+      </c>
+      <c r="P28">
+        <v>2E-05</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
         <v>0.00088</v>
       </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <v>0.00013</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0.00138</v>
-      </c>
       <c r="S28">
-        <v>0</v>
+        <v>0.00011</v>
       </c>
       <c r="T28">
         <v>0</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="V28">
         <v>0</v>
       </c>
       <c r="W28">
-        <v>0.00238</v>
+        <v>0.00291</v>
       </c>
       <c r="X28">
-        <v>0.00013</v>
+        <v>0.00047</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -3448,10 +3448,10 @@
         <v>0</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="AC28">
-        <v>0.00013</v>
+        <v>0.00016</v>
       </c>
       <c r="AD28">
         <v>0</v>
@@ -3460,7 +3460,7 @@
         <v>0</v>
       </c>
       <c r="AF28">
-        <v>0.00013</v>
+        <v>0.00022</v>
       </c>
       <c r="AG28">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="AI28">
-        <v>0</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="29" spans="1:35">
@@ -3477,13 +3477,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.00063</v>
+        <v>0.00083</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>4E-05</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>0.00113</v>
+        <v>0.00205</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3507,7 +3507,7 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>0.00125</v>
+        <v>0.00151</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -3516,34 +3516,34 @@
         <v>0</v>
       </c>
       <c r="O29">
-        <v>0.00063</v>
+        <v>0.00047</v>
       </c>
       <c r="P29">
-        <v>0.00088</v>
+        <v>0.00053</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>4E-05</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>0.00024</v>
       </c>
       <c r="S29">
-        <v>0.00063</v>
+        <v>0.0002</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>5E-05</v>
       </c>
       <c r="U29">
-        <v>0.00038</v>
+        <v>1E-05</v>
       </c>
       <c r="V29">
         <v>0</v>
       </c>
       <c r="W29">
-        <v>0.00013</v>
+        <v>0.00012</v>
       </c>
       <c r="X29">
-        <v>0.00038</v>
+        <v>0.0003</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -3567,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="AF29">
-        <v>0.00038</v>
+        <v>0.00065</v>
       </c>
       <c r="AG29">
         <v>0</v>
@@ -3576,7 +3576,7 @@
         <v>0</v>
       </c>
       <c r="AI29">
-        <v>0</v>
+        <v>0.00012</v>
       </c>
     </row>
     <row r="30" spans="1:35">
@@ -3584,7 +3584,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.00038</v>
+        <v>0.00042</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -3599,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>0.00113</v>
+        <v>0.00137</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3614,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>0.00075</v>
+        <v>0.00082</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="R30">
-        <v>0.00025</v>
+        <v>5E-05</v>
       </c>
       <c r="S30">
         <v>0</v>
@@ -3650,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="X30">
-        <v>0</v>
+        <v>0.00013</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -3674,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="AF30">
-        <v>0</v>
+        <v>6E-05</v>
       </c>
       <c r="AG30">
         <v>0</v>
@@ -3683,7 +3683,7 @@
         <v>0</v>
       </c>
       <c r="AI30">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
     </row>
     <row r="31" spans="1:35">
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="AH31">
-        <v>0</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="AI31">
         <v>0</v>
@@ -3801,19 +3801,19 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>4E-05</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>3E-05</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>0.00012</v>
       </c>
       <c r="F32">
-        <v>0.00013</v>
+        <v>6E-05</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>0.00028</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3825,10 +3825,10 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>0.00013</v>
+        <v>0.0002</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>5E-05</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -3837,49 +3837,49 @@
         <v>0</v>
       </c>
       <c r="O32">
-        <v>0.00151</v>
+        <v>0.00113</v>
       </c>
       <c r="P32">
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>0.00038</v>
+        <v>0.00019</v>
       </c>
       <c r="R32">
-        <v>0.00176</v>
+        <v>0.00143</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <v>5E-05</v>
       </c>
       <c r="T32">
-        <v>0</v>
+        <v>3E-05</v>
       </c>
       <c r="U32">
         <v>0</v>
       </c>
       <c r="V32">
-        <v>0.001</v>
+        <v>0.00124</v>
       </c>
       <c r="W32">
-        <v>0.00038</v>
+        <v>0.00014</v>
       </c>
       <c r="X32">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="Y32">
-        <v>0</v>
+        <v>3E-05</v>
       </c>
       <c r="Z32">
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>0</v>
+        <v>0.00019</v>
       </c>
       <c r="AB32">
-        <v>0.00013</v>
+        <v>5E-05</v>
       </c>
       <c r="AC32">
-        <v>0.00125</v>
+        <v>0.0005</v>
       </c>
       <c r="AD32">
         <v>0</v>
@@ -3891,13 +3891,13 @@
         <v>0</v>
       </c>
       <c r="AG32">
-        <v>0.00025</v>
+        <v>0.00042</v>
       </c>
       <c r="AH32">
-        <v>0.00025</v>
+        <v>0.0002</v>
       </c>
       <c r="AI32">
-        <v>0.008529999999999999</v>
+        <v>0.01055</v>
       </c>
     </row>
     <row r="33" spans="1:35">
@@ -3908,31 +3908,31 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="E33">
-        <v>0.00025</v>
+        <v>1E-05</v>
       </c>
       <c r="F33">
-        <v>0.00038</v>
+        <v>0.00034</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>4E-05</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>3E-05</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3941,34 +3941,34 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="O33">
-        <v>0.00025</v>
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="P33">
-        <v>0.00013</v>
+        <v>1E-05</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>4E-05</v>
       </c>
       <c r="R33">
-        <v>0.00013</v>
+        <v>5E-05</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="T33">
         <v>0</v>
       </c>
       <c r="U33">
-        <v>0.0005</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="V33">
-        <v>0.00025</v>
+        <v>0.0002</v>
       </c>
       <c r="W33">
-        <v>0.0005</v>
+        <v>0.00059</v>
       </c>
       <c r="X33">
         <v>0</v>
@@ -3977,19 +3977,19 @@
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>3E-05</v>
       </c>
       <c r="AA33">
         <v>0</v>
       </c>
       <c r="AB33">
-        <v>0.00025</v>
+        <v>0.00029</v>
       </c>
       <c r="AC33">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="AD33">
-        <v>0.00038</v>
+        <v>0.0004</v>
       </c>
       <c r="AE33">
         <v>0</v>
@@ -3998,13 +3998,13 @@
         <v>0</v>
       </c>
       <c r="AG33">
-        <v>0</v>
+        <v>4E-05</v>
       </c>
       <c r="AH33">
         <v>0</v>
       </c>
       <c r="AI33">
-        <v>0.00188</v>
+        <v>0.00237</v>
       </c>
     </row>
     <row r="34" spans="1:35">
@@ -4015,19 +4015,19 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>0.00025</v>
+        <v>1E-05</v>
       </c>
       <c r="D34">
-        <v>0.00038</v>
+        <v>0.00035</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>0.00011</v>
       </c>
       <c r="F34">
-        <v>0.00075</v>
+        <v>0.00059</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>0.00012</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -4036,67 +4036,67 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>0.00019</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>0.00026</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>4E-05</v>
       </c>
       <c r="M34">
         <v>0</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>5E-05</v>
       </c>
       <c r="O34">
-        <v>0.00013</v>
+        <v>0.00022</v>
       </c>
       <c r="P34">
-        <v>0.00063</v>
+        <v>0.0009300000000000001</v>
       </c>
       <c r="Q34">
-        <v>0.0005</v>
+        <v>0.00032</v>
       </c>
       <c r="R34">
-        <v>0.00075</v>
+        <v>0.00059</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
       <c r="T34">
-        <v>0.00013</v>
+        <v>6E-05</v>
       </c>
       <c r="U34">
-        <v>0.00013</v>
+        <v>0.0001</v>
       </c>
       <c r="V34">
-        <v>0.00038</v>
+        <v>0.00053</v>
       </c>
       <c r="W34">
-        <v>0.00125</v>
+        <v>0.00142</v>
       </c>
       <c r="X34">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>0.00025</v>
+        <v>0.00017</v>
       </c>
       <c r="AA34">
-        <v>0</v>
+        <v>4E-05</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>0.00012</v>
       </c>
       <c r="AC34">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="AD34">
-        <v>0.00025</v>
+        <v>0.00026</v>
       </c>
       <c r="AE34">
         <v>0</v>
@@ -4105,13 +4105,13 @@
         <v>0</v>
       </c>
       <c r="AG34">
-        <v>0</v>
+        <v>0.00015</v>
       </c>
       <c r="AH34">
-        <v>0.00038</v>
+        <v>0.00011</v>
       </c>
       <c r="AI34">
-        <v>0.01192</v>
+        <v>0.01525</v>
       </c>
     </row>
     <row r="35" spans="1:35">
@@ -4119,37 +4119,37 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.00188</v>
+        <v>0.00203</v>
       </c>
       <c r="C35">
-        <v>0.008410000000000001</v>
+        <v>0.00527</v>
       </c>
       <c r="D35">
-        <v>0.0138</v>
+        <v>0.01472</v>
       </c>
       <c r="E35">
-        <v>0.00414</v>
+        <v>0.00319</v>
       </c>
       <c r="F35">
-        <v>0.00891</v>
+        <v>0.00705</v>
       </c>
       <c r="G35">
-        <v>0.00326</v>
+        <v>0.00281</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
       <c r="I35">
-        <v>0.00151</v>
+        <v>0.00237</v>
       </c>
       <c r="J35">
-        <v>0.00238</v>
+        <v>0.00138</v>
       </c>
       <c r="K35">
-        <v>0.00402</v>
+        <v>0.00549</v>
       </c>
       <c r="L35">
-        <v>0.01041</v>
+        <v>0.008970000000000001</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -4158,52 +4158,52 @@
         <v>0</v>
       </c>
       <c r="O35">
-        <v>0.01029</v>
+        <v>0.008580000000000001</v>
       </c>
       <c r="P35">
-        <v>0.00263</v>
+        <v>0.00219</v>
       </c>
       <c r="Q35">
-        <v>0.008659999999999999</v>
+        <v>0.00793</v>
       </c>
       <c r="R35">
-        <v>0.01418</v>
+        <v>0.01612</v>
       </c>
       <c r="S35">
-        <v>0.008529999999999999</v>
+        <v>0.0098</v>
       </c>
       <c r="T35">
-        <v>0.01556</v>
+        <v>0.01759</v>
       </c>
       <c r="U35">
         <v>0.00402</v>
       </c>
       <c r="V35">
-        <v>0.01443</v>
+        <v>0.01468</v>
       </c>
       <c r="W35">
-        <v>0.007900000000000001</v>
+        <v>0.00716</v>
       </c>
       <c r="X35">
-        <v>0.00389</v>
+        <v>0.00446</v>
       </c>
       <c r="Y35">
-        <v>0.00075</v>
+        <v>0.00068</v>
       </c>
       <c r="Z35">
-        <v>0.00226</v>
+        <v>0.00114</v>
       </c>
       <c r="AA35">
-        <v>0.00138</v>
+        <v>0.00027</v>
       </c>
       <c r="AB35">
-        <v>0.00364</v>
+        <v>0.00448</v>
       </c>
       <c r="AC35">
-        <v>0.00201</v>
+        <v>0.0008899999999999999</v>
       </c>
       <c r="AD35">
-        <v>0</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="AE35">
         <v>0</v>
@@ -4212,13 +4212,13 @@
         <v>0</v>
       </c>
       <c r="AG35">
-        <v>0.00025</v>
+        <v>4E-05</v>
       </c>
       <c r="AH35">
-        <v>0.00263</v>
+        <v>0.00497</v>
       </c>
       <c r="AI35">
-        <v>0.00276</v>
+        <v>0.00415</v>
       </c>
     </row>
   </sheetData>
